--- a/참고자료/매입매출샘플(2018-12-17).xlsx
+++ b/참고자료/매입매출샘플(2018-12-17).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8115" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8115" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="원본" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="매입" sheetId="9" r:id="rId3"/>
     <sheet name="매출" sheetId="10" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="11" r:id="rId5"/>
+    <sheet name="거래처정보" sheetId="12" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="iolist" localSheetId="2">매입!$B$2:$H$233</definedName>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6939" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7654" uniqueCount="1381">
   <si>
     <t xml:space="preserve"> 옥동자(초코)</t>
   </si>
@@ -3534,6 +3535,743 @@
   </si>
   <si>
     <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>거래처명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팩스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>0014</t>
+  </si>
+  <si>
+    <t>0015</t>
+  </si>
+  <si>
+    <t>0016</t>
+  </si>
+  <si>
+    <t>0017</t>
+  </si>
+  <si>
+    <t>0018</t>
+  </si>
+  <si>
+    <t>0019</t>
+  </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0021</t>
+  </si>
+  <si>
+    <t>0022</t>
+  </si>
+  <si>
+    <t>0023</t>
+  </si>
+  <si>
+    <t>0024</t>
+  </si>
+  <si>
+    <t>0025</t>
+  </si>
+  <si>
+    <t>0026</t>
+  </si>
+  <si>
+    <t>0027</t>
+  </si>
+  <si>
+    <t>0028</t>
+  </si>
+  <si>
+    <t>0029</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>0031</t>
+  </si>
+  <si>
+    <t>0032</t>
+  </si>
+  <si>
+    <t>0033</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>0035</t>
+  </si>
+  <si>
+    <t>0036</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>0038</t>
+  </si>
+  <si>
+    <t>0039</t>
+  </si>
+  <si>
+    <t>0040</t>
+  </si>
+  <si>
+    <t>0041</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>0043</t>
+  </si>
+  <si>
+    <t>0044</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>0046</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>0050</t>
+  </si>
+  <si>
+    <t>0051</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>0056</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0058</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>0061</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>0063</t>
+  </si>
+  <si>
+    <t>0064</t>
+  </si>
+  <si>
+    <t>0065</t>
+  </si>
+  <si>
+    <t>0066</t>
+  </si>
+  <si>
+    <t>0067</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>0070</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>0072</t>
+  </si>
+  <si>
+    <t>0073</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>0075</t>
+  </si>
+  <si>
+    <t>0076</t>
+  </si>
+  <si>
+    <t>0077</t>
+  </si>
+  <si>
+    <t>0078</t>
+  </si>
+  <si>
+    <t>0079</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>0082</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>0084</t>
+  </si>
+  <si>
+    <t>0085</t>
+  </si>
+  <si>
+    <t>0086</t>
+  </si>
+  <si>
+    <t>0087</t>
+  </si>
+  <si>
+    <t>0088</t>
+  </si>
+  <si>
+    <t>0089</t>
+  </si>
+  <si>
+    <t>0090</t>
+  </si>
+  <si>
+    <t>0091</t>
+  </si>
+  <si>
+    <t>0092</t>
+  </si>
+  <si>
+    <t>0093</t>
+  </si>
+  <si>
+    <t>0094</t>
+  </si>
+  <si>
+    <t>0095</t>
+  </si>
+  <si>
+    <t>0096</t>
+  </si>
+  <si>
+    <t>0097</t>
+  </si>
+  <si>
+    <t>0098</t>
+  </si>
+  <si>
+    <t>0099</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>0112</t>
+  </si>
+  <si>
+    <t>0113</t>
+  </si>
+  <si>
+    <t>0114</t>
+  </si>
+  <si>
+    <t>0115</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>0119</t>
+  </si>
+  <si>
+    <t>0120</t>
+  </si>
+  <si>
+    <t>0121</t>
+  </si>
+  <si>
+    <t>0122</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>0124</t>
+  </si>
+  <si>
+    <t>0125</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>0127</t>
+  </si>
+  <si>
+    <t>0128</t>
+  </si>
+  <si>
+    <t>0129</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>0131</t>
+  </si>
+  <si>
+    <t>0132</t>
+  </si>
+  <si>
+    <t>0133</t>
+  </si>
+  <si>
+    <t>0134</t>
+  </si>
+  <si>
+    <t>0135</t>
+  </si>
+  <si>
+    <t>0136</t>
+  </si>
+  <si>
+    <t>0137</t>
+  </si>
+  <si>
+    <t>0138</t>
+  </si>
+  <si>
+    <t>0139</t>
+  </si>
+  <si>
+    <t>0140</t>
+  </si>
+  <si>
+    <t>0141</t>
+  </si>
+  <si>
+    <t>0142</t>
+  </si>
+  <si>
+    <t>0143</t>
+  </si>
+  <si>
+    <t>0144</t>
+  </si>
+  <si>
+    <t>0145</t>
+  </si>
+  <si>
+    <t>0146</t>
+  </si>
+  <si>
+    <t>0147</t>
+  </si>
+  <si>
+    <t>0148</t>
+  </si>
+  <si>
+    <t>0149</t>
+  </si>
+  <si>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>0151</t>
+  </si>
+  <si>
+    <t>0152</t>
+  </si>
+  <si>
+    <t>0153</t>
+  </si>
+  <si>
+    <t>0154</t>
+  </si>
+  <si>
+    <t>0155</t>
+  </si>
+  <si>
+    <t>0156</t>
+  </si>
+  <si>
+    <t>0157</t>
+  </si>
+  <si>
+    <t>0158</t>
+  </si>
+  <si>
+    <t>0159</t>
+  </si>
+  <si>
+    <t>0160</t>
+  </si>
+  <si>
+    <t>0161</t>
+  </si>
+  <si>
+    <t>0162</t>
+  </si>
+  <si>
+    <t>0163</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>0165</t>
+  </si>
+  <si>
+    <t>0166</t>
+  </si>
+  <si>
+    <t>0167</t>
+  </si>
+  <si>
+    <t>0168</t>
+  </si>
+  <si>
+    <t>0169</t>
+  </si>
+  <si>
+    <t>0170</t>
+  </si>
+  <si>
+    <t>0171</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>0173</t>
+  </si>
+  <si>
+    <t>0174</t>
+  </si>
+  <si>
+    <t>0175</t>
+  </si>
+  <si>
+    <t>0176</t>
+  </si>
+  <si>
+    <t>0177</t>
+  </si>
+  <si>
+    <t>0178</t>
+  </si>
+  <si>
+    <t>0179</t>
+  </si>
+  <si>
+    <t>0180</t>
+  </si>
+  <si>
+    <t>0181</t>
+  </si>
+  <si>
+    <t>0182</t>
+  </si>
+  <si>
+    <t>0183</t>
+  </si>
+  <si>
+    <t>0184</t>
+  </si>
+  <si>
+    <t>0185</t>
+  </si>
+  <si>
+    <t>0186</t>
+  </si>
+  <si>
+    <t>0187</t>
+  </si>
+  <si>
+    <t>0188</t>
+  </si>
+  <si>
+    <t>0189</t>
+  </si>
+  <si>
+    <t>0190</t>
+  </si>
+  <si>
+    <t>0191</t>
+  </si>
+  <si>
+    <t>0192</t>
+  </si>
+  <si>
+    <t>0193</t>
+  </si>
+  <si>
+    <t>0194</t>
+  </si>
+  <si>
+    <t>0195</t>
+  </si>
+  <si>
+    <t>0196</t>
+  </si>
+  <si>
+    <t>0197</t>
+  </si>
+  <si>
+    <t>0198</t>
+  </si>
+  <si>
+    <t>0199</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>0209</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
+    <t>0213</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>0216</t>
+  </si>
+  <si>
+    <t>0217</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>0219</t>
+  </si>
+  <si>
+    <t>0220</t>
+  </si>
+  <si>
+    <t>0221</t>
+  </si>
+  <si>
+    <t>0222</t>
+  </si>
+  <si>
+    <t>0223</t>
+  </si>
+  <si>
+    <t>0224</t>
+  </si>
+  <si>
+    <t>0225</t>
+  </si>
+  <si>
+    <t>0226</t>
+  </si>
+  <si>
+    <t>0227</t>
+  </si>
+  <si>
+    <t>0228</t>
+  </si>
+  <si>
+    <t>0229</t>
+  </si>
+  <si>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>0231</t>
+  </si>
+  <si>
+    <t>0232</t>
+  </si>
+  <si>
+    <t>0233</t>
+  </si>
+  <si>
+    <t>0234</t>
+  </si>
+  <si>
+    <t>0235</t>
+  </si>
+  <si>
+    <t>0236</t>
   </si>
 </sst>
 </file>
@@ -3759,7 +4497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3811,10 +4549,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4169,18 +4910,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>874</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J2" s="1" t="s">
@@ -39162,8 +39903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I492"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -54503,7 +55244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -54515,7 +55256,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18">
+      <c r="A1" s="17">
         <v>43101</v>
       </c>
       <c r="B1" t="s">
@@ -54529,7 +55270,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>43101</v>
       </c>
       <c r="B2" t="s">
@@ -54543,7 +55284,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>43132</v>
       </c>
       <c r="B3" t="s">
@@ -54557,7 +55298,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>43132</v>
       </c>
       <c r="B4" t="s">
@@ -54571,7 +55312,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>43160</v>
       </c>
       <c r="B5" t="s">
@@ -54585,7 +55326,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>43160</v>
       </c>
       <c r="B6" t="s">
@@ -54599,7 +55340,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>43191</v>
       </c>
       <c r="B7" t="s">
@@ -54613,7 +55354,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="A8" s="17">
         <v>43191</v>
       </c>
       <c r="B8" t="s">
@@ -54627,7 +55368,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>43221</v>
       </c>
       <c r="B9" t="s">
@@ -54641,7 +55382,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>43221</v>
       </c>
       <c r="B10" t="s">
@@ -54655,7 +55396,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>43252</v>
       </c>
       <c r="B11" t="s">
@@ -54669,7 +55410,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>43252</v>
       </c>
       <c r="B12" t="s">
@@ -54683,7 +55424,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>43282</v>
       </c>
       <c r="B13" t="s">
@@ -54697,7 +55438,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="17">
         <v>43282</v>
       </c>
       <c r="B14" t="s">
@@ -54711,7 +55452,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>43313</v>
       </c>
       <c r="B15" t="s">
@@ -54725,7 +55466,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
+      <c r="A16" s="17">
         <v>43313</v>
       </c>
       <c r="B16" t="s">
@@ -54739,7 +55480,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="A17" s="17">
         <v>43344</v>
       </c>
       <c r="B17" t="s">
@@ -54753,7 +55494,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
+      <c r="A18" s="17">
         <v>43344</v>
       </c>
       <c r="B18" t="s">
@@ -54767,7 +55508,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
+      <c r="A19" s="17">
         <v>43374</v>
       </c>
       <c r="B19" t="s">
@@ -54781,7 +55522,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>43374</v>
       </c>
       <c r="B20" t="s">
@@ -54795,7 +55536,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
+      <c r="A21" s="17">
         <v>43405</v>
       </c>
       <c r="B21" t="s">
@@ -54809,7 +55550,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
+      <c r="A22" s="17">
         <v>43405</v>
       </c>
       <c r="B22" t="s">
@@ -54823,7 +55564,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
+      <c r="A23" s="17">
         <v>43435</v>
       </c>
       <c r="B23" t="s">
@@ -54837,7 +55578,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
+      <c r="A24" s="17">
         <v>43435</v>
       </c>
       <c r="B24" t="s">
@@ -54848,6 +55589,2649 @@
       </c>
       <c r="D24">
         <v>2617100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G237"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>662</v>
+      </c>
+      <c r="C4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>782</v>
+      </c>
+      <c r="C6" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B14" t="s">
+        <v>593</v>
+      </c>
+      <c r="C14" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>750</v>
+      </c>
+      <c r="C16" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B17" t="s">
+        <v>309</v>
+      </c>
+      <c r="C17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B18" t="s">
+        <v>441</v>
+      </c>
+      <c r="C18" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B22" t="s">
+        <v>495</v>
+      </c>
+      <c r="C22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B24" t="s">
+        <v>424</v>
+      </c>
+      <c r="C24" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C25" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B26" t="s">
+        <v>630</v>
+      </c>
+      <c r="C26" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B28" t="s">
+        <v>699</v>
+      </c>
+      <c r="C28" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B29" t="s">
+        <v>443</v>
+      </c>
+      <c r="C29" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B30" t="s">
+        <v>672</v>
+      </c>
+      <c r="C30" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>640</v>
+      </c>
+      <c r="C31" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B32" t="s">
+        <v>551</v>
+      </c>
+      <c r="C32" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B33" t="s">
+        <v>712</v>
+      </c>
+      <c r="C33" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B35" t="s">
+        <v>659</v>
+      </c>
+      <c r="C35" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B36" t="s">
+        <v>499</v>
+      </c>
+      <c r="C36" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B37" t="s">
+        <v>418</v>
+      </c>
+      <c r="C37" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B38" t="s">
+        <v>492</v>
+      </c>
+      <c r="C38" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B39" t="s">
+        <v>760</v>
+      </c>
+      <c r="C39" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B41" t="s">
+        <v>861</v>
+      </c>
+      <c r="C41" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="19" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B42" t="s">
+        <v>532</v>
+      </c>
+      <c r="C42" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B43" t="s">
+        <v>627</v>
+      </c>
+      <c r="C43" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B45" t="s">
+        <v>315</v>
+      </c>
+      <c r="C45" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="19" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B46" t="s">
+        <v>839</v>
+      </c>
+      <c r="C46" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B47" t="s">
+        <v>374</v>
+      </c>
+      <c r="C47" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B50" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B51" t="s">
+        <v>562</v>
+      </c>
+      <c r="C51" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B52" t="s">
+        <v>683</v>
+      </c>
+      <c r="C52" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="19" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B55" t="s">
+        <v>798</v>
+      </c>
+      <c r="C55" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="19" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B56" t="s">
+        <v>452</v>
+      </c>
+      <c r="C56" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="19" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B57" t="s">
+        <v>385</v>
+      </c>
+      <c r="C57" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="19" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B58" t="s">
+        <v>377</v>
+      </c>
+      <c r="C58" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="19" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B59" t="s">
+        <v>575</v>
+      </c>
+      <c r="C59" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="19" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="19" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B61" t="s">
+        <v>427</v>
+      </c>
+      <c r="C61" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="19" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B62" t="s">
+        <v>586</v>
+      </c>
+      <c r="C62" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="19" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B63" t="s">
+        <v>421</v>
+      </c>
+      <c r="C63" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B64" t="s">
+        <v>670</v>
+      </c>
+      <c r="C64" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B65" t="s">
+        <v>787</v>
+      </c>
+      <c r="C65" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="19" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B66" t="s">
+        <v>741</v>
+      </c>
+      <c r="C66" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="19" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B67" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="19" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B68" t="s">
+        <v>412</v>
+      </c>
+      <c r="C68" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B70" t="s">
+        <v>490</v>
+      </c>
+      <c r="C70" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="19" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="19" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B73" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="19" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B74" t="s">
+        <v>335</v>
+      </c>
+      <c r="C74" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="19" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B76" t="s">
+        <v>735</v>
+      </c>
+      <c r="C76" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B77" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B79" t="s">
+        <v>409</v>
+      </c>
+      <c r="C79" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B80" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="19" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B81" t="s">
+        <v>369</v>
+      </c>
+      <c r="C81" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="19" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B82" t="s">
+        <v>182</v>
+      </c>
+      <c r="C82" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="19" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B83" t="s">
+        <v>142</v>
+      </c>
+      <c r="C83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="19" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B84" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="19" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B85" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="19" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B86" t="s">
+        <v>458</v>
+      </c>
+      <c r="C86" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="19" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B87" t="s">
+        <v>811</v>
+      </c>
+      <c r="C87" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="19" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B88" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="19" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B89" t="s">
+        <v>727</v>
+      </c>
+      <c r="C89" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="19" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B90" t="s">
+        <v>469</v>
+      </c>
+      <c r="C90" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="19" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="19" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B92" t="s">
+        <v>511</v>
+      </c>
+      <c r="C92" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="19" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C93" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="19" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B94" t="s">
+        <v>435</v>
+      </c>
+      <c r="C94" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="19" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B95" t="s">
+        <v>516</v>
+      </c>
+      <c r="C95" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="19" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B96" t="s">
+        <v>573</v>
+      </c>
+      <c r="C96" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="19" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B97" t="s">
+        <v>636</v>
+      </c>
+      <c r="C97" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="19" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B99" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="19" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B100" t="s">
+        <v>725</v>
+      </c>
+      <c r="C100" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="19" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B101" t="s">
+        <v>653</v>
+      </c>
+      <c r="C101" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="19" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B102" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="19" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B103" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="19" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B104" t="s">
+        <v>130</v>
+      </c>
+      <c r="C104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="19" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B105" t="s">
+        <v>261</v>
+      </c>
+      <c r="C105" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="19" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B106" t="s">
+        <v>772</v>
+      </c>
+      <c r="C106" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="19" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B107" t="s">
+        <v>715</v>
+      </c>
+      <c r="C107" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="19" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B108" t="s">
+        <v>447</v>
+      </c>
+      <c r="C108" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="19" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B109" t="s">
+        <v>392</v>
+      </c>
+      <c r="C109" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="19" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B110" t="s">
+        <v>685</v>
+      </c>
+      <c r="C110" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="19" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B111" t="s">
+        <v>581</v>
+      </c>
+      <c r="C111" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="19" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="19" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B113" t="s">
+        <v>396</v>
+      </c>
+      <c r="C113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="19" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B114" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="19" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B115" t="s">
+        <v>604</v>
+      </c>
+      <c r="C115" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="19" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B116" t="s">
+        <v>46</v>
+      </c>
+      <c r="C116" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="19" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B117" t="s">
+        <v>706</v>
+      </c>
+      <c r="C117" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="19" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B118" t="s">
+        <v>835</v>
+      </c>
+      <c r="C118" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="19" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B119" t="s">
+        <v>505</v>
+      </c>
+      <c r="C119" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="19" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B120" t="s">
+        <v>105</v>
+      </c>
+      <c r="C120" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="19" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B121" t="s">
+        <v>808</v>
+      </c>
+      <c r="C121" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="19" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B122" t="s">
+        <v>275</v>
+      </c>
+      <c r="C122" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="19" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B123" t="s">
+        <v>764</v>
+      </c>
+      <c r="C123" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="19" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B124" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="19" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="19" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B126" t="s">
+        <v>633</v>
+      </c>
+      <c r="C126" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="19" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B127" t="s">
+        <v>415</v>
+      </c>
+      <c r="C127" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="19" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B128" t="s">
+        <v>719</v>
+      </c>
+      <c r="C128" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B129" t="s">
+        <v>270</v>
+      </c>
+      <c r="C129" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="19" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B130" t="s">
+        <v>185</v>
+      </c>
+      <c r="C130" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="19" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B131" t="s">
+        <v>342</v>
+      </c>
+      <c r="C131" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="19" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B132" t="s">
+        <v>613</v>
+      </c>
+      <c r="C132" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="19" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B133" t="s">
+        <v>239</v>
+      </c>
+      <c r="C133" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="19" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B134" t="s">
+        <v>565</v>
+      </c>
+      <c r="C134" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="19" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B135" t="s">
+        <v>461</v>
+      </c>
+      <c r="C135" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="19" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B136" t="s">
+        <v>570</v>
+      </c>
+      <c r="C136" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="19" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="19" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B138" t="s">
+        <v>80</v>
+      </c>
+      <c r="C138" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="19" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B139" t="s">
+        <v>189</v>
+      </c>
+      <c r="C139" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="19" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B140" t="s">
+        <v>284</v>
+      </c>
+      <c r="C140" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="19" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B141" t="s">
+        <v>579</v>
+      </c>
+      <c r="C141" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="19" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B142" t="s">
+        <v>405</v>
+      </c>
+      <c r="C142" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="19" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B143" t="s">
+        <v>795</v>
+      </c>
+      <c r="C143" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="19" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B144" t="s">
+        <v>692</v>
+      </c>
+      <c r="C144" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="19" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B145" t="s">
+        <v>350</v>
+      </c>
+      <c r="C145" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="19" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B146" t="s">
+        <v>114</v>
+      </c>
+      <c r="C146" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="19" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B147" t="s">
+        <v>339</v>
+      </c>
+      <c r="C147" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="19" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B148" t="s">
+        <v>609</v>
+      </c>
+      <c r="C148" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="19" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B149" t="s">
+        <v>162</v>
+      </c>
+      <c r="C149" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="19" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B150" t="s">
+        <v>402</v>
+      </c>
+      <c r="C150" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="19" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B151" t="s">
+        <v>643</v>
+      </c>
+      <c r="C151" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B152" t="s">
+        <v>624</v>
+      </c>
+      <c r="C152" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="19" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B153" t="s">
+        <v>226</v>
+      </c>
+      <c r="C153" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="19" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B154" t="s">
+        <v>229</v>
+      </c>
+      <c r="C154" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="19" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B155" t="s">
+        <v>820</v>
+      </c>
+      <c r="C155" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="19" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B156" t="s">
+        <v>330</v>
+      </c>
+      <c r="C156" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="19" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B157" t="s">
+        <v>666</v>
+      </c>
+      <c r="C157" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="19" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B158" t="s">
+        <v>294</v>
+      </c>
+      <c r="C158" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="19" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B159" t="s">
+        <v>833</v>
+      </c>
+      <c r="C159" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B160" t="s">
+        <v>850</v>
+      </c>
+      <c r="C160" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="19" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B161" t="s">
+        <v>49</v>
+      </c>
+      <c r="C161" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="19" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B162" t="s">
+        <v>482</v>
+      </c>
+      <c r="C162" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="19" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B163" t="s">
+        <v>747</v>
+      </c>
+      <c r="C163" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B164" t="s">
+        <v>37</v>
+      </c>
+      <c r="C164" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="19" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B165" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="19" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B166" t="s">
+        <v>844</v>
+      </c>
+      <c r="C166" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="19" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B167" t="s">
+        <v>438</v>
+      </c>
+      <c r="C167" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="19" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B168" t="s">
+        <v>195</v>
+      </c>
+      <c r="C168" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="19" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B169" t="s">
+        <v>429</v>
+      </c>
+      <c r="C169" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="19" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B170" t="s">
+        <v>324</v>
+      </c>
+      <c r="C170" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="19" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B171" t="s">
+        <v>558</v>
+      </c>
+      <c r="C171" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="19" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B172" t="s">
+        <v>302</v>
+      </c>
+      <c r="C172" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="19" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="19" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B174" t="s">
+        <v>96</v>
+      </c>
+      <c r="C174" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="19" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B175" t="s">
+        <v>278</v>
+      </c>
+      <c r="C175" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="19" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B176" t="s">
+        <v>167</v>
+      </c>
+      <c r="C176" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="19" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B177" t="s">
+        <v>357</v>
+      </c>
+      <c r="C177" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="19" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B178" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="19" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B179" t="s">
+        <v>508</v>
+      </c>
+      <c r="C179" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="19" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B180" t="s">
+        <v>217</v>
+      </c>
+      <c r="C180" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="19" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B181" t="s">
+        <v>702</v>
+      </c>
+      <c r="C181" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="19" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B182" t="s">
+        <v>347</v>
+      </c>
+      <c r="C182" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="19" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B183" t="s">
+        <v>133</v>
+      </c>
+      <c r="C183" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="19" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B184" t="s">
+        <v>28</v>
+      </c>
+      <c r="C184" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="19" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B185" t="s">
+        <v>237</v>
+      </c>
+      <c r="C185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="19" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B186" t="s">
+        <v>618</v>
+      </c>
+      <c r="C186" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="19" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B187" t="s">
+        <v>213</v>
+      </c>
+      <c r="C187" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="19" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B188" t="s">
+        <v>111</v>
+      </c>
+      <c r="C188" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="19" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B189" t="s">
+        <v>485</v>
+      </c>
+      <c r="C189" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="19" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B190" t="s">
+        <v>646</v>
+      </c>
+      <c r="C190" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="19" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B191" t="s">
+        <v>544</v>
+      </c>
+      <c r="C191" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="19" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B192" t="s">
+        <v>455</v>
+      </c>
+      <c r="C192" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="19" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B193" t="s">
+        <v>220</v>
+      </c>
+      <c r="C193" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="19" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B194" t="s">
+        <v>321</v>
+      </c>
+      <c r="C194" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="19" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B195" t="s">
+        <v>120</v>
+      </c>
+      <c r="C195" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="19" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B196" t="s">
+        <v>273</v>
+      </c>
+      <c r="C196" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="19" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B197" t="s">
+        <v>264</v>
+      </c>
+      <c r="C197" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="19" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
+      </c>
+      <c r="C198" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="19" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B199" t="s">
+        <v>99</v>
+      </c>
+      <c r="C199" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="19" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B200" t="s">
+        <v>774</v>
+      </c>
+      <c r="C200" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="19" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B201" t="s">
+        <v>74</v>
+      </c>
+      <c r="C201" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="19" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B202" t="s">
+        <v>597</v>
+      </c>
+      <c r="C202" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="19" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B203" t="s">
+        <v>388</v>
+      </c>
+      <c r="C203" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="19" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B204" t="s">
+        <v>127</v>
+      </c>
+      <c r="C204" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="19" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B205" t="s">
+        <v>250</v>
+      </c>
+      <c r="C205" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="19" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B206" t="s">
+        <v>59</v>
+      </c>
+      <c r="C206" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="19" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B207" t="s">
+        <v>476</v>
+      </c>
+      <c r="C207" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="19" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B208" t="s">
+        <v>108</v>
+      </c>
+      <c r="C208" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="19" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B209" t="s">
+        <v>93</v>
+      </c>
+      <c r="C209" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="19" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B210" t="s">
+        <v>767</v>
+      </c>
+      <c r="C210" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="19" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B211" t="s">
+        <v>590</v>
+      </c>
+      <c r="C211" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="19" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B212" t="s">
+        <v>363</v>
+      </c>
+      <c r="C212" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="19" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B213" t="s">
+        <v>159</v>
+      </c>
+      <c r="C213" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="19" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B214" t="s">
+        <v>805</v>
+      </c>
+      <c r="C214" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="19" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="19" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B216" t="s">
+        <v>200</v>
+      </c>
+      <c r="C216" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="19" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B217" t="s">
+        <v>538</v>
+      </c>
+      <c r="C217" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="19" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B218" t="s">
+        <v>529</v>
+      </c>
+      <c r="C218" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="19" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B219" t="s">
+        <v>432</v>
+      </c>
+      <c r="C219" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="19" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B220" t="s">
+        <v>117</v>
+      </c>
+      <c r="C220" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="19" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B221" t="s">
+        <v>656</v>
+      </c>
+      <c r="C221" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="19" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B222" t="s">
+        <v>90</v>
+      </c>
+      <c r="C222" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="19" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B223" t="s">
+        <v>258</v>
+      </c>
+      <c r="C223" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="19" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B224" t="s">
+        <v>827</v>
+      </c>
+      <c r="C224" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="19" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B225" t="s">
+        <v>535</v>
+      </c>
+      <c r="C225" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="19" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B226" t="s">
+        <v>472</v>
+      </c>
+      <c r="C226" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="19" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B227" t="s">
+        <v>71</v>
+      </c>
+      <c r="C227" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="19" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B228" t="s">
+        <v>287</v>
+      </c>
+      <c r="C228" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="19" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B229" t="s">
+        <v>814</v>
+      </c>
+      <c r="C229" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="19" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B230" t="s">
+        <v>502</v>
+      </c>
+      <c r="C230" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="19" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B231" t="s">
+        <v>156</v>
+      </c>
+      <c r="C231" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="19" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B232" t="s">
+        <v>173</v>
+      </c>
+      <c r="C232" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="19" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B233" t="s">
+        <v>479</v>
+      </c>
+      <c r="C233" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="19" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B234" t="s">
+        <v>549</v>
+      </c>
+      <c r="C234" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="19" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B235" t="s">
+        <v>65</v>
+      </c>
+      <c r="C235" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="19" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B236" t="s">
+        <v>53</v>
+      </c>
+      <c r="C236" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="19" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B237" t="s">
+        <v>556</v>
+      </c>
+      <c r="C237" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
